--- a/44. Peloton's_Regression_Analysis.xlsx
+++ b/44. Peloton's_Regression_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587ED346-2827-44F6-AFFC-7E80617FD736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4EA061-5A61-4B88-A09E-ABF53B734521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{023DB5DA-4014-4EEB-A419-34D4164576F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -82,12 +82,15 @@
   <si>
     <t>Power</t>
   </si>
+  <si>
+    <t>Average:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -136,27 +146,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -183,44 +206,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.2819335083114599E-2"/>
-          <c:y val="3.7243947858473E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -230,17 +215,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue (million $)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -363,12 +337,26 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -384,15 +372,18 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>218.6</c:v>
                 </c:pt>
@@ -407,6 +398,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4021.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3582.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,7 +508,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -636,7 +630,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1647,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F4AAE0-45E2-437E-B141-2DF74E58B400}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1655,7 @@
     <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2017</v>
       </c>
@@ -1689,10 +1683,10 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>170.97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>173.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -1706,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>1.7511000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.7209000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -1734,7 +1728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
@@ -1748,37 +1742,52 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>103.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135.80000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3582.1</v>
+      </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>0.72589999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.6099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1797,45 +1806,251 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>C14</f>
+        <v>249.9055921457622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>218.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f>$F$6*EXP($F$7*A14)</f>
+        <v>249.9055921457622</v>
+      </c>
+      <c r="D14">
+        <f>$F$2*POWER(A14,$F$3)</f>
+        <v>173.94</v>
+      </c>
+      <c r="E14" s="6">
+        <f>ABS(B14-C14)/B14</f>
+        <v>0.14320947916634127</v>
+      </c>
+      <c r="F14" s="6">
+        <f>ABS(B14-D14)/B14</f>
+        <v>0.20430009149130832</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="dataTable" ref="J14:J28" dt2D="0" dtr="0" r1="A14"/>
+        <v>249.9055921457622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>435</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" ref="C15:C19" si="0">$F$6*EXP($F$7*A15)</f>
+        <v>459.88810740592078</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D18" si="1">$F$2*POWER(A15,$F$3)</f>
+        <v>573.3792672273787</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" ref="E15:E18" si="2">ABS(B15-C15)/B15</f>
+        <v>5.7214040013610981E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:F18" si="3">ABS(B15-D15)/B15</f>
+        <v>0.31811325799397405</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>459.88810740592078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>915</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>846.30787777666035</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1152.0661940645791</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="2"/>
+        <v>7.5073357621136233E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="3"/>
+        <v>0.25908873668260013</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>846.30787777666035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>1825.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1557.415841924887</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1890.0987931827399</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.14704209325544285</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5160081703674781E-2</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>1557.415841924887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>4021.8</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2866.0303990679654</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2774.9613986002573</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.28737619994331759</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="3"/>
+        <v>0.31002004112580012</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2866.0303990679654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7">
+        <f>AVERAGE(E14:E18)</f>
+        <v>0.14198303399996978</v>
+      </c>
+      <c r="F19" s="7">
+        <f>AVERAGE(F14:F18)</f>
+        <v>0.22533644179947149</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>5274.2048894464997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>9705.8416494492085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>17861.149518988252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>32868.933335395821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>60486.967955682478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>111310.98338782448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>204839.74385759476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>376955.79884917889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>693691.91549471952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>1276564.719502473</v>
       </c>
     </row>
   </sheetData>
@@ -1844,6 +2059,11 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
   </mergeCells>
+  <conditionalFormatting sqref="J14:J28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>MAX($J$14:$J$28)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/44. Peloton's_Regression_Analysis.xlsx
+++ b/44. Peloton's_Regression_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4EA061-5A61-4B88-A09E-ABF53B734521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609256AD-7C08-43DA-B6C0-D8DEBCC18D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{023DB5DA-4014-4EEB-A419-34D4164576F1}"/>
   </bookViews>
